--- a/biology/Zoologie/Alcolapia_latilabris/Alcolapia_latilabris.xlsx
+++ b/biology/Zoologie/Alcolapia_latilabris/Alcolapia_latilabris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcolapia latilabris est une espèce de poissons qui fait partie de la famille des Cichlidae et de l'ordre des Cichliformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcolapia latilabris est une espèce de cichlidae endémique de l'Afrique. Elle se rencontre uniquement dans le lac Natron en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcolapia latilabris est une espèce de cichlidae endémique de l'Afrique. Elle se rencontre uniquement dans le lac Natron en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Une eau adaptée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de cichlidae vit dans une eau dure et salée, se rapprochant de celle des poissons d'eau de mer. Les lacs salins de cette zone africaine sont également très chauds.
 </t>
